--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B38A752F-EB82-4F2F-8876-C3E16DF5CDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F21E759D-91B2-4CFB-B6DF-A86892431F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
     <t>F02_TC03</t>
   </si>
   <si>
-    <t>tasks = [task activ, nerepetitiv cu start=05/05/2025 10:00], start = 03/05/2025 10:00, end = 04/05/2025 10:00</t>
+    <t>tasks = [task activ, nerepetitiv cu start=05/05/2025 10:00], start = 06/05/2025 10:00, end = 07/05/2025 10:00</t>
   </si>
   <si>
     <t>1, 2, 3, 4, 5, 8</t>
@@ -2669,7 +2669,7 @@
   </sheetPr>
   <dimension ref="B1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3278,8 +3278,8 @@
   </sheetPr>
   <dimension ref="B1:X12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3443,10 +3443,10 @@
         <v>112</v>
       </c>
       <c r="F8" s="38">
-        <v>45752.916666666664</v>
+        <v>45813.916666666664</v>
       </c>
       <c r="G8" s="38">
-        <v>45782.916666666664</v>
+        <v>45843.916666666664</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>77</v>

--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F21E759D-91B2-4CFB-B6DF-A86892431F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F4C446-1FB5-C94C-8EC9-5D55D62D9BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45820" windowHeight="26880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1527,6 +1527,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1536,9 +1542,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1566,12 +1569,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1584,34 +1602,64 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1632,9 +1680,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1653,12 +1698,6 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1668,49 +1707,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2118,18 +2118,18 @@
   </sheetPr>
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="9"/>
       <c r="D1" s="47" t="s">
         <v>0</v>
@@ -2138,12 +2138,12 @@
       <c r="F1" s="48"/>
       <c r="G1" s="49"/>
     </row>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2153,7 +2153,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2190,7 +2190,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2205,7 +2205,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -2230,7 +2230,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="46" t="s">
         <v>17</v>
       </c>
@@ -2238,15 +2238,15 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -2265,18 +2265,18 @@
   </sheetPr>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B1" s="9"/>
       <c r="D1" s="47" t="s">
         <v>18</v>
@@ -2287,21 +2287,21 @@
       <c r="H1" s="48"/>
       <c r="I1" s="49"/>
     </row>
-    <row r="3" spans="2:20">
-      <c r="B3" s="51" t="s">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="6" spans="2:20">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="47" t="s">
         <v>20</v>
       </c>
@@ -2326,7 +2326,7 @@
       <c r="S6" s="48"/>
       <c r="T6" s="48"/>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="25" t="s">
         <v>23</v>
       </c>
@@ -2340,123 +2340,123 @@
       <c r="I8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="64" t="s">
+      <c r="Q8" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
       <c r="T8" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="Q9" s="64" t="s">
+      <c r="Q9" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
       <c r="T9" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="57"/>
-      <c r="Q10" s="64" t="s">
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="58"/>
+      <c r="Q10" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="64" t="s">
+      <c r="R10" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="64"/>
+      <c r="S10" s="52"/>
       <c r="T10" s="27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="60"/>
-    </row>
-    <row r="12" spans="2:20">
+      <c r="I11" s="59"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="60"/>
-    </row>
-    <row r="13" spans="2:20">
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="61"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="60"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="61"/>
       <c r="Q13" s="47" t="s">
         <v>39</v>
       </c>
@@ -2464,33 +2464,33 @@
       <c r="S13" s="48"/>
       <c r="T13" s="48"/>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="60"/>
-    </row>
-    <row r="15" spans="2:20">
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="60"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="61"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I15" s="59"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="61"/>
       <c r="Q15" s="25" t="s">
         <v>40</v>
       </c>
@@ -2500,14 +2500,14 @@
       <c r="S15" s="65"/>
       <c r="T15" s="65"/>
     </row>
-    <row r="16" spans="2:20">
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="60"/>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="61"/>
       <c r="Q16" s="28" t="s">
         <v>42</v>
       </c>
@@ -2517,14 +2517,14 @@
       <c r="S16" s="50"/>
       <c r="T16" s="50"/>
     </row>
-    <row r="17" spans="1:20">
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="60"/>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I17" s="59"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="61"/>
       <c r="Q17" s="28" t="s">
         <v>44</v>
       </c>
@@ -2534,14 +2534,14 @@
       <c r="S17" s="50"/>
       <c r="T17" s="50"/>
     </row>
-    <row r="18" spans="1:20">
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="60"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="61"/>
       <c r="Q18" s="28" t="s">
         <v>46</v>
       </c>
@@ -2551,18 +2551,18 @@
       <c r="S18" s="50"/>
       <c r="T18" s="50"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="e">
         <f>- R19</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="60"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
       <c r="Q19" s="28" t="s">
         <v>48</v>
       </c>
@@ -2572,14 +2572,14 @@
       <c r="S19" s="50"/>
       <c r="T19" s="50"/>
     </row>
-    <row r="20" spans="1:20">
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="60"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="61"/>
       <c r="Q20" s="28" t="s">
         <v>50</v>
       </c>
@@ -2589,56 +2589,48 @@
       <c r="S20" s="50"/>
       <c r="T20" s="50"/>
     </row>
-    <row r="21" spans="1:20">
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="60"/>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I21" s="59"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="61"/>
       <c r="Q21" s="28"/>
       <c r="R21" s="50"/>
       <c r="S21" s="50"/>
       <c r="T21" s="50"/>
     </row>
-    <row r="22" spans="1:20">
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="60"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="60"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="I24" s="61"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="63"/>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="61"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="61"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2655,6 +2647,14 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2669,31 +2669,30 @@
   </sheetPr>
   <dimension ref="B1:AC16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" customWidth="1"/>
-    <col min="18" max="19" width="8.85546875" customWidth="1"/>
-    <col min="23" max="25" width="8.5703125" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" customWidth="1"/>
-    <col min="27" max="28" width="8.5703125" customWidth="1"/>
-    <col min="29" max="29" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="11" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" customWidth="1"/>
+    <col min="18" max="19" width="8.83203125" customWidth="1"/>
+    <col min="23" max="25" width="8.5" customWidth="1"/>
+    <col min="26" max="26" width="8.6640625" customWidth="1"/>
+    <col min="27" max="29" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B1" s="9"/>
       <c r="D1" s="47" t="s">
         <v>0</v>
@@ -2702,169 +2701,169 @@
       <c r="F1" s="48"/>
       <c r="G1" s="49"/>
     </row>
-    <row r="3" spans="2:29">
-      <c r="B3" s="66" t="s">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B3" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
-    </row>
-    <row r="5" spans="2:29">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="2:29" ht="15.75">
-      <c r="B6" s="67" t="s">
+    <row r="6" spans="2:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-    </row>
-    <row r="7" spans="2:29" ht="15.75">
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="75" t="s">
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+    </row>
+    <row r="7" spans="2:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="74" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="70" t="s">
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-    </row>
-    <row r="8" spans="2:29" ht="79.5" customHeight="1">
-      <c r="B8" s="67"/>
-      <c r="C8" s="71" t="s">
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+    </row>
+    <row r="8" spans="2:29" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="73"/>
+      <c r="C8" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="73" t="s">
+      <c r="E8" s="69"/>
+      <c r="F8" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73" t="s">
+      <c r="G8" s="68"/>
+      <c r="H8" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73" t="s">
+      <c r="I8" s="68"/>
+      <c r="J8" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73" t="s">
+      <c r="K8" s="68"/>
+      <c r="L8" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73" t="s">
+      <c r="M8" s="68"/>
+      <c r="N8" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73" t="s">
+      <c r="O8" s="68"/>
+      <c r="P8" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="74" t="s">
+      <c r="Q8" s="68"/>
+      <c r="R8" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="74" t="s">
+      <c r="S8" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="T8" s="74" t="s">
+      <c r="T8" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="U8" s="74" t="s">
+      <c r="U8" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="V8" s="74" t="s">
+      <c r="V8" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="70">
+      <c r="W8" s="71">
         <v>0</v>
       </c>
-      <c r="X8" s="70">
+      <c r="X8" s="71">
         <v>1</v>
       </c>
-      <c r="Y8" s="70">
+      <c r="Y8" s="71">
         <v>2</v>
       </c>
-      <c r="Z8" s="70" t="s">
+      <c r="Z8" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="AA8" s="70" t="s">
+      <c r="AA8" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="AB8" s="70" t="s">
+      <c r="AB8" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="AC8" s="70" t="s">
+      <c r="AC8" s="71" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:29" ht="16.5" thickBot="1">
-      <c r="B9" s="67"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="75"/>
+    <row r="9" spans="2:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="73"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="10" t="s">
         <v>73</v>
       </c>
@@ -2901,20 +2900,20 @@
       <c r="Q9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="70"/>
-    </row>
-    <row r="10" spans="2:29" ht="64.5">
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+    </row>
+    <row r="10" spans="2:29" ht="68" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>75</v>
       </c>
@@ -2958,7 +2957,7 @@
       <c r="AB10" s="16"/>
       <c r="AC10" s="16"/>
     </row>
-    <row r="11" spans="2:29" ht="64.5">
+    <row r="11" spans="2:29" ht="68" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>80</v>
       </c>
@@ -3004,7 +3003,7 @@
       <c r="AB11" s="16"/>
       <c r="AC11" s="16"/>
     </row>
-    <row r="12" spans="2:29" ht="113.25">
+    <row r="12" spans="2:29" ht="119" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>83</v>
       </c>
@@ -3056,7 +3055,7 @@
       <c r="AB12" s="16"/>
       <c r="AC12" s="16"/>
     </row>
-    <row r="13" spans="2:29" ht="113.25">
+    <row r="13" spans="2:29" ht="119" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>86</v>
       </c>
@@ -3114,7 +3113,7 @@
       <c r="AB13" s="16"/>
       <c r="AC13" s="16"/>
     </row>
-    <row r="14" spans="2:29" ht="113.25">
+    <row r="14" spans="2:29" ht="119" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>89</v>
       </c>
@@ -3172,7 +3171,7 @@
       <c r="AB14" s="16"/>
       <c r="AC14" s="16"/>
     </row>
-    <row r="15" spans="2:29" ht="162">
+    <row r="15" spans="2:29" ht="170" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>92</v>
       </c>
@@ -3230,25 +3229,11 @@
       <c r="AB15" s="16"/>
       <c r="AC15" s="16"/>
     </row>
-    <row r="16" spans="2:29" ht="15.75">
+    <row r="16" spans="2:29" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -3265,6 +3250,20 @@
     <mergeCell ref="W7:AC7"/>
     <mergeCell ref="AC8:AC9"/>
     <mergeCell ref="H8:I8"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="V8:V9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3278,24 +3277,24 @@
   </sheetPr>
   <dimension ref="B1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B1" s="9"/>
       <c r="D1" s="47" t="s">
         <v>0</v>
@@ -3304,42 +3303,42 @@
       <c r="F1" s="48"/>
       <c r="G1" s="49"/>
     </row>
-    <row r="3" spans="2:24">
-      <c r="B3" s="80" t="s">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B3" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-    </row>
-    <row r="4" spans="2:24">
-      <c r="B4" s="81" t="s">
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="83" t="s">
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="84"/>
-    </row>
-    <row r="5" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B5" s="82"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="89"/>
+      <c r="I4" s="100"/>
+    </row>
+    <row r="5" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="98"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="104"/>
       <c r="E5" s="2" t="s">
         <v>100</v>
       </c>
@@ -3356,11 +3355,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="106.5" thickTop="1" thickBot="1">
+    <row r="6" spans="2:24" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="42">
         <v>9</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="105" t="s">
         <v>105</v>
       </c>
       <c r="D6" s="35" t="s">
@@ -3386,11 +3385,11 @@
       </c>
       <c r="U6" s="18"/>
     </row>
-    <row r="7" spans="2:24">
+    <row r="7" spans="2:24" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="43">
         <v>10</v>
       </c>
-      <c r="C7" s="91"/>
+      <c r="C7" s="106"/>
       <c r="D7" s="37" t="s">
         <v>80</v>
       </c>
@@ -3409,33 +3408,33 @@
       <c r="I7" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="95" t="s">
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="93" t="s">
+      <c r="Q7" s="109"/>
+      <c r="R7" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="107" t="s">
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="X7" s="108"/>
-    </row>
-    <row r="8" spans="2:24" ht="106.5">
+      <c r="X7" s="93"/>
+    </row>
+    <row r="8" spans="2:24" ht="112" x14ac:dyDescent="0.2">
       <c r="B8" s="43">
         <v>11</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="37" t="s">
         <v>83</v>
       </c>
@@ -3454,51 +3453,51 @@
       <c r="I8" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="105" t="s">
+      <c r="L8" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="79" t="s">
+      <c r="M8" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="N8" s="79" t="s">
+      <c r="N8" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="O8" s="111" t="s">
+      <c r="O8" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="P8" s="98" t="s">
+      <c r="P8" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="Q8" s="97" t="s">
+      <c r="Q8" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="R8" s="99" t="s">
+      <c r="R8" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="S8" s="78" t="s">
+      <c r="S8" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="T8" s="78" t="s">
+      <c r="T8" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="U8" s="76" t="s">
+      <c r="U8" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="V8" s="102" t="s">
+      <c r="V8" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="W8" s="104" t="s">
+      <c r="W8" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="X8" s="86" t="s">
+      <c r="X8" s="80" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="106.5">
+    <row r="9" spans="2:24" ht="112" x14ac:dyDescent="0.2">
       <c r="B9" s="43">
         <v>12</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="37" t="s">
         <v>86</v>
       </c>
@@ -3517,25 +3516,25 @@
       <c r="I9" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="109"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="105"/>
-      <c r="X9" s="98"/>
-    </row>
-    <row r="10" spans="2:24" ht="106.5">
+      <c r="L9" s="112"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="81"/>
+    </row>
+    <row r="10" spans="2:24" ht="112" x14ac:dyDescent="0.2">
       <c r="B10" s="43">
         <v>13</v>
       </c>
-      <c r="C10" s="91"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="37" t="s">
         <v>89</v>
       </c>
@@ -3587,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="5" t="s">
         <v>126</v>
@@ -3597,11 +3596,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="229.5">
+    <row r="11" spans="2:24" ht="224" x14ac:dyDescent="0.2">
       <c r="B11" s="44">
         <v>14</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="39" t="s">
         <v>92</v>
       </c>
@@ -3621,20 +3620,16 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="15.75" thickTop="1"/>
+    <row r="12" spans="2:24" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:B5"/>
@@ -3642,13 +3637,17 @@
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3657,6 +3656,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3800,15 +3808,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3816,13 +3815,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>